--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tejas\Workspace\bose-workspace\Raphael-App-Framework\server\helpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1043223\Desktop\xlsx-2-json-conversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2445,22 +2445,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="3" width="37.26953125" customWidth="1"/>
-    <col min="4" max="4" width="28.36328125" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="38.26953125" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="52.26953125" customWidth="1"/>
+    <col min="9" max="9" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>188</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>23</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>23</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>23</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>50</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>50</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>50</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>50</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>50</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>50</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>50</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>50</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>50</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>50</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>50</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>50</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>50</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>50</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>50</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>50</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>50</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>50</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>50</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>50</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>50</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>50</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>50</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>52</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>52</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>52</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>52</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>52</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>52</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>52</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>52</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>52</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>52</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>52</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>84</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>96</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>96</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>96</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>96</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>96</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>96</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>96</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>96</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>96</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>96</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>96</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>113</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>120</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>120</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>120</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>120</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>120</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>120</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>120</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>120</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>120</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>119</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>119</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>119</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>119</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>119</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>119</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>119</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>119</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>119</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>119</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>119</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>119</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>119</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>119</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>119</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>119</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>119</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>119</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>119</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>119</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>119</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>119</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>119</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>119</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>119</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>119</v>
       </c>
